--- a/Output/Chock_Nacional_2015_68.xlsx
+++ b/Output/Chock_Nacional_2015_68.xlsx
@@ -10,14 +10,16 @@
     <sheet name="ChoqueDemanda" sheetId="1" r:id="rId1"/>
     <sheet name="Oferta" sheetId="2" r:id="rId2"/>
     <sheet name="Impact_VBP" sheetId="3" r:id="rId3"/>
-    <sheet name="Impactos" sheetId="4" r:id="rId4"/>
+    <sheet name="Impact_VA_Sectors" sheetId="4" r:id="rId4"/>
+    <sheet name="Impact_VA_Agg_Sectors" sheetId="5" r:id="rId5"/>
+    <sheet name="Impactos" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="109">
   <si>
     <t>Exportações</t>
   </si>
@@ -324,10 +326,76 @@
     <t>VBP_Impact</t>
   </si>
   <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>VA_Choque</t>
+  </si>
+  <si>
+    <t>Variação %</t>
+  </si>
+  <si>
+    <t>Agricultura, inclusive apoio à agricultura e a pós-colheita</t>
+  </si>
+  <si>
+    <t>Pecuária, inclusive apoio à Pecuária</t>
+  </si>
+  <si>
+    <t>Produção florestal, pesca e aquicultura</t>
+  </si>
+  <si>
+    <t>Indústrias extrativas</t>
+  </si>
+  <si>
+    <t>Indústrias de transformação</t>
+  </si>
+  <si>
+    <t>Eletricidade e gás, água, esgoto, atividades de gestão de resíduos e descontaminação</t>
+  </si>
+  <si>
+    <t>Construção</t>
+  </si>
+  <si>
+    <t>Comércio e reparação de veículos automotores e motocicletas</t>
+  </si>
+  <si>
+    <t>Transporte, armazenagem e correio</t>
+  </si>
+  <si>
+    <t>Alojamento e alimentação</t>
+  </si>
+  <si>
+    <t>Informação e comunicação</t>
+  </si>
+  <si>
+    <t>Atividades financeiras, de seguros e serviços relacionados</t>
+  </si>
+  <si>
+    <t>Atividades imobiliárias</t>
+  </si>
+  <si>
+    <t>Atividades profissionais, científicas e técnicas, administrativas e serviços complementares</t>
+  </si>
+  <si>
+    <t>Administração, defesa, educação e saúde públicas e seguridade social</t>
+  </si>
+  <si>
+    <t>Educação e saúde privadas</t>
+  </si>
+  <si>
+    <t>Artes, cultura, esporte e recreação e outras atividades de serviços</t>
+  </si>
+  <si>
+    <t>Serviços domésticos</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
     <t>VBP</t>
   </si>
   <si>
-    <t>PIB</t>
+    <t>Impostos</t>
   </si>
   <si>
     <t>EOB</t>
@@ -346,9 +414,6 @@
   </si>
   <si>
     <t>Impactos</t>
-  </si>
-  <si>
-    <t>Variação %</t>
   </si>
 </sst>
 </file>
@@ -815,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.028</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -838,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.975</v>
+        <v>1.014</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -861,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>1.028</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -884,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>1.028</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -930,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.91</v>
+        <v>1.0297</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -953,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.954</v>
+        <v>1.0297</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -976,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.954</v>
+        <v>0.965</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -999,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1022,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.6325000000000001</v>
+        <v>0.7375</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1045,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0.6325000000000001</v>
+        <v>0.7375</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1068,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.6325000000000001</v>
+        <v>0.7375</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1091,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.9625</v>
+        <v>0.945</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1114,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.9625</v>
+        <v>0.945</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1160,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0.8250000000000001</v>
+        <v>0.7867499999999999</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1183,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0.8250000000000001</v>
+        <v>0.7867499999999999</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1206,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.975</v>
+        <v>0.9408</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1229,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0.975</v>
+        <v>0.9408</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1252,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0.975</v>
+        <v>0.9408</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1275,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1.146</v>
+        <v>0.9089</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1298,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0.8225</v>
+        <v>0.85995</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1321,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0.844</v>
+        <v>0.89225</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1344,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0.844</v>
+        <v>0.89225</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1367,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0.844</v>
+        <v>0.89225</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1390,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.844</v>
+        <v>0.89225</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1413,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0.8674999999999999</v>
+        <v>0.851</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1436,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0.8674999999999999</v>
+        <v>0.851</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1459,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.904</v>
+        <v>0.87495</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1482,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0.698</v>
+        <v>0.6489499999999999</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1505,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.698</v>
+        <v>0.6489499999999999</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1528,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.698</v>
+        <v>0.6489499999999999</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1551,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0.6205000000000001</v>
+        <v>0.8411500000000001</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1597,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0.91</v>
+        <v>0.76845</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1620,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0.76</v>
+        <v>0.84365</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1643,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.91095</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1666,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0.8175</v>
+        <v>0.8679</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1689,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.9655</v>
+        <v>0.8802</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1712,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0.675</v>
+        <v>0.631</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1735,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0.8251499999999999</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1758,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0.534</v>
+        <v>0.6228</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1781,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1.0615</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1804,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0.5409999999999999</v>
+        <v>0.5549999999999999</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1827,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0.623</v>
+        <v>0.73</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1850,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0.7965</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1873,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0.9</v>
+        <v>0.7965</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1896,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0.9345</v>
+        <v>0.927</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1919,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>1.085</v>
+        <v>0.92035</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1942,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>1.01425</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -1965,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -1988,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2011,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2034,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2057,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2080,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2103,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2126,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0.7625000000000001</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2149,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0.99975</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2172,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0.8394</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2195,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>1.1</v>
+        <v>1.03685</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2218,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1.1</v>
+        <v>1.03685</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2241,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0.5050000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2319,7 +2384,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.069</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2327,7 +2392,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.044</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2335,7 +2400,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9359999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2343,7 +2408,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2351,7 +2416,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2359,7 +2424,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2367,7 +2432,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2375,7 +2440,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.044</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2383,7 +2448,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1.0297</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2391,7 +2456,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.0297</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2399,7 +2464,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2407,7 +2472,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2415,7 +2480,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.7375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2423,7 +2488,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0.7375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2431,7 +2496,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.7375</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2439,7 +2504,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2447,7 +2512,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2455,7 +2520,7 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.9215</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2463,7 +2528,7 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.7867499999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2471,7 +2536,7 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.7867499999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2479,7 +2544,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.9408</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2487,7 +2552,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.9408</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2495,7 +2560,7 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.9408</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2503,7 +2568,7 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.9089</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2511,7 +2576,7 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.85995</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2519,7 +2584,7 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.89225</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2527,7 +2592,7 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.89225</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2535,7 +2600,7 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.89225</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2543,7 +2608,7 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.89225</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2551,7 +2616,7 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2559,7 +2624,7 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2567,7 +2632,7 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.87495</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2575,7 +2640,7 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.6489499999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2583,7 +2648,7 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.6489499999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2591,7 +2656,7 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.6489499999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2599,7 +2664,7 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.8411500000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2615,7 +2680,7 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.76845</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2623,7 +2688,7 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.84365</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2631,7 +2696,7 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.91095</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2639,7 +2704,7 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.8679</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2647,7 +2712,7 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.8802</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2655,7 +2720,7 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2663,7 +2728,7 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.8251499999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2671,7 +2736,7 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.6228</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2679,7 +2744,7 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9772999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2687,7 +2752,7 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.5549999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2695,7 +2760,7 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2703,7 +2768,7 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.7965</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2711,7 +2776,7 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.7965</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2719,7 +2784,7 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2727,7 +2792,7 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0.92035</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2735,7 +2800,7 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>1.01425</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2751,7 +2816,7 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2759,7 +2824,7 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2767,7 +2832,7 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2775,7 +2840,7 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2783,7 +2848,7 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2791,7 +2856,7 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2799,7 +2864,7 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.7625000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2807,7 +2872,7 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0.99975</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2815,7 +2880,7 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.8394</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2823,7 +2888,7 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>1.03685</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2831,7 +2896,7 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>1.03685</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2839,7 +2904,7 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2847,7 +2912,7 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2855,7 +2920,7 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -2890,16 +2955,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>303671.0801864368</v>
+        <v>307867.9589124618</v>
       </c>
       <c r="C2">
         <v>309300.9999999999</v>
       </c>
       <c r="D2">
-        <v>-5629.919813563174</v>
+        <v>-1433.041087538179</v>
       </c>
       <c r="E2">
-        <v>-0.01820207439860581</v>
+        <v>-0.004633160214607062</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2907,16 +2972,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>137834.227820893</v>
+        <v>138664.5492641799</v>
       </c>
       <c r="C3">
         <v>137017.9999999999</v>
       </c>
       <c r="D3">
-        <v>816.2278208930802</v>
+        <v>1646.549264179921</v>
       </c>
       <c r="E3">
-        <v>0.005957084623137694</v>
+        <v>0.01201702888802874</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2924,16 +2989,16 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>30737.39423179992</v>
+        <v>30882.92736522813</v>
       </c>
       <c r="C4">
         <v>32411.00000000001</v>
       </c>
       <c r="D4">
-        <v>-1673.60576820009</v>
+        <v>-1528.072634771877</v>
       </c>
       <c r="E4">
-        <v>-0.05163696794915584</v>
+        <v>-0.04714672903557054</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2941,16 +3006,16 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>19217.21182366668</v>
+        <v>19306.6479260615</v>
       </c>
       <c r="C5">
         <v>19733</v>
       </c>
       <c r="D5">
-        <v>-515.7881763333207</v>
+        <v>-426.3520739384985</v>
       </c>
       <c r="E5">
-        <v>-0.02613835586749712</v>
+        <v>-0.02160604438952508</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2958,16 +3023,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>160157.4273441937</v>
+        <v>157648.9478814988</v>
       </c>
       <c r="C6">
         <v>171984</v>
       </c>
       <c r="D6">
-        <v>-11826.57265580632</v>
+        <v>-14335.05211850119</v>
       </c>
       <c r="E6">
-        <v>-0.06876554014214298</v>
+        <v>-0.08335107985917986</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2975,16 +3040,16 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>52373.01411295441</v>
+        <v>52379.15715177998</v>
       </c>
       <c r="C7">
         <v>52752.99999999999</v>
       </c>
       <c r="D7">
-        <v>-379.9858870455791</v>
+        <v>-373.8428482200106</v>
       </c>
       <c r="E7">
-        <v>-0.007203114269246852</v>
+        <v>-0.007086665179610841</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2992,16 +3057,16 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>15788.77232189957</v>
+        <v>15818.02251174743</v>
       </c>
       <c r="C8">
         <v>16103</v>
       </c>
       <c r="D8">
-        <v>-314.2276781004311</v>
+        <v>-284.9774882525708</v>
       </c>
       <c r="E8">
-        <v>-0.01951361101039751</v>
+        <v>-0.0176971675000044</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3009,16 +3074,16 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>257346.0465414028</v>
+        <v>258828.31126674</v>
       </c>
       <c r="C9">
         <v>255197.9999999999</v>
       </c>
       <c r="D9">
-        <v>2148.046541402902</v>
+        <v>3630.311266740115</v>
       </c>
       <c r="E9">
-        <v>0.008417176237285964</v>
+        <v>0.01422546911315965</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3026,16 +3091,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>45086.80990790689</v>
+        <v>47180.38373960321</v>
       </c>
       <c r="C10">
         <v>48065.99999999999</v>
       </c>
       <c r="D10">
-        <v>-2979.190092093108</v>
+        <v>-885.6162603967823</v>
       </c>
       <c r="E10">
-        <v>-0.06198123605236774</v>
+        <v>-0.01842500437724759</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3043,16 +3108,16 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>241774.8393437623</v>
+        <v>254586.9192324231</v>
       </c>
       <c r="C11">
         <v>253228</v>
       </c>
       <c r="D11">
-        <v>-11453.16065623765</v>
+        <v>1358.919232423097</v>
       </c>
       <c r="E11">
-        <v>-0.04522865029237547</v>
+        <v>0.005366386151701617</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3060,16 +3125,16 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>65904.4222878267</v>
+        <v>68673.54507151517</v>
       </c>
       <c r="C12">
         <v>76444</v>
       </c>
       <c r="D12">
-        <v>-10539.5777121733</v>
+        <v>-7770.454928484833</v>
       </c>
       <c r="E12">
-        <v>-0.1378731844510138</v>
+        <v>-0.1016489839422954</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3077,16 +3142,16 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>14125.4544053004</v>
+        <v>14603.15641850413</v>
       </c>
       <c r="C13">
         <v>15084</v>
       </c>
       <c r="D13">
-        <v>-958.5455946995917</v>
+        <v>-480.8435814958684</v>
       </c>
       <c r="E13">
-        <v>-0.06354717546404083</v>
+        <v>-0.03187772351470887</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3094,16 +3159,16 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>32046.04138880757</v>
+        <v>36085.62678698164</v>
       </c>
       <c r="C14">
         <v>46430</v>
       </c>
       <c r="D14">
-        <v>-14383.95861119243</v>
+        <v>-10344.37321301836</v>
       </c>
       <c r="E14">
-        <v>-0.3097988070470048</v>
+        <v>-0.2227950293564152</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3111,16 +3176,16 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>39667.98721836079</v>
+        <v>45762.73753610099</v>
       </c>
       <c r="C15">
         <v>61302.00000000004</v>
       </c>
       <c r="D15">
-        <v>-21634.01278163924</v>
+        <v>-15539.26246389905</v>
       </c>
       <c r="E15">
-        <v>-0.3529087596104406</v>
+        <v>-0.2534870389856618</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3128,16 +3193,16 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>28191.293116122</v>
+        <v>31604.53338591471</v>
       </c>
       <c r="C16">
         <v>40232.00000000003</v>
       </c>
       <c r="D16">
-        <v>-12040.70688387803</v>
+        <v>-8627.466614085315</v>
       </c>
       <c r="E16">
-        <v>-0.2992818374397996</v>
+        <v>-0.2144428965521304</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3145,16 +3210,16 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>24615.74404098982</v>
+        <v>25331.21144924622</v>
       </c>
       <c r="C17">
         <v>26588.00000000001</v>
       </c>
       <c r="D17">
-        <v>-1972.255959010185</v>
+        <v>-1256.788550753783</v>
       </c>
       <c r="E17">
-        <v>-0.07417842481608937</v>
+        <v>-0.04726901424529046</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3162,16 +3227,16 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>77285.17739512489</v>
+        <v>77009.73119098804</v>
       </c>
       <c r="C18">
         <v>80337.00000000003</v>
       </c>
       <c r="D18">
-        <v>-3051.822604875138</v>
+        <v>-3327.268809011992</v>
       </c>
       <c r="E18">
-        <v>-0.03798775912562253</v>
+        <v>-0.04141639355480028</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3179,16 +3244,16 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>18463.0877489448</v>
+        <v>18088.64331342046</v>
       </c>
       <c r="C19">
         <v>19473</v>
       </c>
       <c r="D19">
-        <v>-1009.912251055201</v>
+        <v>-1384.356686579544</v>
       </c>
       <c r="E19">
-        <v>-0.05186218102270838</v>
+        <v>-0.07109108440299612</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3196,16 +3261,16 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>331001.9529925337</v>
+        <v>323993.1451418911</v>
       </c>
       <c r="C20">
         <v>373349</v>
       </c>
       <c r="D20">
-        <v>-42347.04700746632</v>
+        <v>-49355.85485810885</v>
       </c>
       <c r="E20">
-        <v>-0.1134248304065802</v>
+        <v>-0.1321976350763196</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3213,16 +3278,16 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>37376.47215590926</v>
+        <v>36288.88291314321</v>
       </c>
       <c r="C21">
         <v>42840.99999999999</v>
       </c>
       <c r="D21">
-        <v>-5464.527844090735</v>
+        <v>-6552.117086856786</v>
       </c>
       <c r="E21">
-        <v>-0.1275536949205373</v>
+        <v>-0.1529403395545572</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3230,16 +3295,16 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>139410.9488541806</v>
+        <v>140289.1269781619</v>
       </c>
       <c r="C22">
         <v>145533.0000000001</v>
       </c>
       <c r="D22">
-        <v>-6122.051145819452</v>
+        <v>-5243.873021838197</v>
       </c>
       <c r="E22">
-        <v>-0.04206641205650574</v>
+        <v>-0.03603219216149049</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3247,16 +3312,16 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>72061.12365110585</v>
+        <v>72444.41860047102</v>
       </c>
       <c r="C23">
         <v>74484</v>
       </c>
       <c r="D23">
-        <v>-2422.876348894148</v>
+        <v>-2039.581399528979</v>
       </c>
       <c r="E23">
-        <v>-0.03252881624099334</v>
+        <v>-0.02738281240976558</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3264,16 +3329,16 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>39278.49708340765</v>
+        <v>38222.18427767367</v>
       </c>
       <c r="C24">
         <v>40474.99999999998</v>
       </c>
       <c r="D24">
-        <v>-1196.502916592326</v>
+        <v>-2252.815722326304</v>
       </c>
       <c r="E24">
-        <v>-0.02956152974903834</v>
+        <v>-0.05565943724092169</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3281,16 +3346,16 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>63538.66809986596</v>
+        <v>54684.60176085592</v>
       </c>
       <c r="C25">
         <v>57972</v>
       </c>
       <c r="D25">
-        <v>5566.668099865958</v>
+        <v>-3287.39823914408</v>
       </c>
       <c r="E25">
-        <v>0.09602339232501825</v>
+        <v>-0.05670665561208998</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3298,16 +3363,16 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>92766.12711851089</v>
+        <v>93666.41460274425</v>
       </c>
       <c r="C26">
         <v>101171</v>
       </c>
       <c r="D26">
-        <v>-8404.872881489107</v>
+        <v>-7504.585397255752</v>
       </c>
       <c r="E26">
-        <v>-0.08307590990984677</v>
+        <v>-0.07417723850960999</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3315,16 +3380,16 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>87001.5090480199</v>
+        <v>87593.10485686353</v>
       </c>
       <c r="C27">
         <v>89569</v>
       </c>
       <c r="D27">
-        <v>-2567.4909519801</v>
+        <v>-1975.895143136469</v>
       </c>
       <c r="E27">
-        <v>-0.02866495050720785</v>
+        <v>-0.02206003352874844</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3332,16 +3397,16 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>97714.19680914044</v>
+        <v>97764.46233458249</v>
       </c>
       <c r="C28">
         <v>101592</v>
       </c>
       <c r="D28">
-        <v>-3877.803190859559</v>
+        <v>-3827.537665417505</v>
       </c>
       <c r="E28">
-        <v>-0.03817035978088391</v>
+        <v>-0.0376755813983139</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3349,16 +3414,16 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>54778.05718257812</v>
+        <v>55041.65818369244</v>
       </c>
       <c r="C29">
         <v>57162</v>
       </c>
       <c r="D29">
-        <v>-2383.942817421877</v>
+        <v>-2120.341816307562</v>
       </c>
       <c r="E29">
-        <v>-0.0417050281204625</v>
+        <v>-0.03709355544430849</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3366,16 +3431,16 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>85847.38421178263</v>
+        <v>86667.42082438862</v>
       </c>
       <c r="C30">
         <v>91269</v>
       </c>
       <c r="D30">
-        <v>-5421.615788217372</v>
+        <v>-4601.579175611376</v>
       </c>
       <c r="E30">
-        <v>-0.05940259878181389</v>
+        <v>-0.050417766992203</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3383,16 +3448,16 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>79550.94654339459</v>
+        <v>78793.29615625576</v>
       </c>
       <c r="C31">
         <v>85208.99999999999</v>
       </c>
       <c r="D31">
-        <v>-5658.053456605398</v>
+        <v>-6415.703843744224</v>
       </c>
       <c r="E31">
-        <v>-0.06640206382665444</v>
+        <v>-0.07529373474332789</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3400,16 +3465,16 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>68000.56699888455</v>
+        <v>67316.92146265658</v>
       </c>
       <c r="C32">
         <v>71998</v>
       </c>
       <c r="D32">
-        <v>-3997.433001115452</v>
+        <v>-4681.078537343419</v>
       </c>
       <c r="E32">
-        <v>-0.05552144505563283</v>
+        <v>-0.06501678570715047</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3417,16 +3482,16 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>118587.3224118048</v>
+        <v>118262.0641932587</v>
       </c>
       <c r="C33">
         <v>120637.9999999999</v>
       </c>
       <c r="D33">
-        <v>-2050.677588195162</v>
+        <v>-2375.935806741269</v>
       </c>
       <c r="E33">
-        <v>-0.01699860399041067</v>
+        <v>-0.01969475461082967</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3434,16 +3499,16 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>122414.7956337486</v>
+        <v>118552.7349324599</v>
       </c>
       <c r="C34">
         <v>146446</v>
       </c>
       <c r="D34">
-        <v>-24031.20436625136</v>
+        <v>-27893.26506754005</v>
       </c>
       <c r="E34">
-        <v>-0.1640960105858225</v>
+        <v>-0.1904679203770677</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3451,16 +3516,16 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>62423.42410476458</v>
+        <v>61700.09991206703</v>
       </c>
       <c r="C35">
         <v>70497.00000000001</v>
       </c>
       <c r="D35">
-        <v>-8073.575895235437</v>
+        <v>-8796.900087932983</v>
       </c>
       <c r="E35">
-        <v>-0.1145236803727171</v>
+        <v>-0.1247840346104512</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3468,16 +3533,16 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>48245.40099386593</v>
+        <v>47820.30927337808</v>
       </c>
       <c r="C36">
         <v>51014.99999999999</v>
       </c>
       <c r="D36">
-        <v>-2769.599006134056</v>
+        <v>-3194.690726621906</v>
       </c>
       <c r="E36">
-        <v>-0.05428989524912393</v>
+        <v>-0.06262257623487028</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3485,16 +3550,16 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>53734.12390682589</v>
+        <v>63091.4236404098</v>
       </c>
       <c r="C37">
         <v>70398</v>
       </c>
       <c r="D37">
-        <v>-16663.87609317411</v>
+        <v>-7306.576359590203</v>
       </c>
       <c r="E37">
-        <v>-0.236709510116397</v>
+        <v>-0.1037895445835138</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3502,16 +3567,16 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>59752.73790291233</v>
+        <v>59483.82160536473</v>
       </c>
       <c r="C38">
         <v>62459.99999999999</v>
       </c>
       <c r="D38">
-        <v>-2707.26209708766</v>
+        <v>-2976.178394635252</v>
       </c>
       <c r="E38">
-        <v>-0.04334393367095198</v>
+        <v>-0.04764934989809882</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3519,16 +3584,16 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>242281.2134744638</v>
+        <v>224678.534866159</v>
       </c>
       <c r="C39">
         <v>260753.0000000001</v>
       </c>
       <c r="D39">
-        <v>-18471.78652553627</v>
+        <v>-36074.46513384106</v>
       </c>
       <c r="E39">
-        <v>-0.07084016876329809</v>
+        <v>-0.1383472678505752</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3536,16 +3601,16 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>55675.56962532057</v>
+        <v>57472.48294567285</v>
       </c>
       <c r="C40">
         <v>62845.00000000002</v>
       </c>
       <c r="D40">
-        <v>-7169.430374679454</v>
+        <v>-5372.517054327174</v>
       </c>
       <c r="E40">
-        <v>-0.1140811580026963</v>
+        <v>-0.08548837702803998</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3553,16 +3618,16 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>630178.2645656834</v>
+        <v>630236.0976381167</v>
       </c>
       <c r="C41">
         <v>632307.9999999999</v>
       </c>
       <c r="D41">
-        <v>-2129.735434316448</v>
+        <v>-2071.9023618832</v>
       </c>
       <c r="E41">
-        <v>-0.003368193086781202</v>
+        <v>-0.003276729634740032</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3570,16 +3635,16 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>128100.5152711685</v>
+        <v>131995.3168671756</v>
       </c>
       <c r="C42">
         <v>146401.0000000001</v>
       </c>
       <c r="D42">
-        <v>-18300.48472883157</v>
+        <v>-14405.68313282443</v>
       </c>
       <c r="E42">
-        <v>-0.1250024571473662</v>
+        <v>-0.09839880282801637</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3587,16 +3652,16 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>912053.1206122977</v>
+        <v>877881.7803211493</v>
       </c>
       <c r="C43">
         <v>954362</v>
       </c>
       <c r="D43">
-        <v>-42308.87938770233</v>
+        <v>-76480.21967885073</v>
       </c>
       <c r="E43">
-        <v>-0.04433210813894762</v>
+        <v>-0.08013753657296784</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3604,16 +3669,16 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>285957.2916261335</v>
+        <v>280225.6635015742</v>
       </c>
       <c r="C44">
         <v>332854.9999999999</v>
       </c>
       <c r="D44">
-        <v>-46897.70837386645</v>
+        <v>-52629.33649842575</v>
       </c>
       <c r="E44">
-        <v>-0.1408953098912934</v>
+        <v>-0.158114904383067</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3621,16 +3686,16 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>19349.44639703721</v>
+        <v>18939.82850955346</v>
       </c>
       <c r="C45">
         <v>20080</v>
       </c>
       <c r="D45">
-        <v>-730.553602962791</v>
+        <v>-1140.171490446537</v>
       </c>
       <c r="E45">
-        <v>-0.03638215154197167</v>
+        <v>-0.05678144872741719</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3638,16 +3703,16 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>31964.86505309202</v>
+        <v>32298.32496338177</v>
       </c>
       <c r="C46">
         <v>37338</v>
       </c>
       <c r="D46">
-        <v>-5373.13494690798</v>
+        <v>-5039.675036618231</v>
       </c>
       <c r="E46">
-        <v>-0.1439052693477953</v>
+        <v>-0.134974423820725</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3655,16 +3720,16 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>111246.568087969</v>
+        <v>108573.9271792989</v>
       </c>
       <c r="C47">
         <v>115144</v>
       </c>
       <c r="D47">
-        <v>-3897.431912030981</v>
+        <v>-6570.072820701156</v>
       </c>
       <c r="E47">
-        <v>-0.03384832828485184</v>
+        <v>-0.05705961943914711</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3672,16 +3737,16 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>20729.70423262492</v>
+        <v>20693.73522485152</v>
       </c>
       <c r="C48">
         <v>23990.00000000001</v>
       </c>
       <c r="D48">
-        <v>-3260.295767375086</v>
+        <v>-3296.264775148487</v>
       </c>
       <c r="E48">
-        <v>-0.1359022829251807</v>
+        <v>-0.1374016163046472</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3689,16 +3754,16 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>152745.5766609026</v>
+        <v>172085.7192163006</v>
       </c>
       <c r="C49">
         <v>223426</v>
       </c>
       <c r="D49">
-        <v>-70680.42333909738</v>
+        <v>-51340.28078369939</v>
       </c>
       <c r="E49">
-        <v>-0.3163482465742456</v>
+        <v>-0.2297865100019666</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3706,16 +3771,16 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>20236.77951991932</v>
+        <v>17805.65304509044</v>
       </c>
       <c r="C50">
         <v>20485.99999999999</v>
       </c>
       <c r="D50">
-        <v>-249.2204800806758</v>
+        <v>-2680.34695490955</v>
       </c>
       <c r="E50">
-        <v>-0.01216540467053968</v>
+        <v>-0.1308379847168579</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3723,16 +3788,16 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>40699.52085274534</v>
+        <v>40073.93441293205</v>
       </c>
       <c r="C51">
         <v>43404</v>
       </c>
       <c r="D51">
-        <v>-2704.479147254664</v>
+        <v>-3330.065587067947</v>
       </c>
       <c r="E51">
-        <v>-0.06230944491877854</v>
+        <v>-0.07672255061902007</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3740,16 +3805,16 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>151186.5836674104</v>
+        <v>150119.9628794569</v>
       </c>
       <c r="C52">
         <v>161039</v>
       </c>
       <c r="D52">
-        <v>-9852.416332589579</v>
+        <v>-10919.03712054307</v>
       </c>
       <c r="E52">
-        <v>-0.06118031242487584</v>
+        <v>-0.06780368184441703</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3757,16 +3822,16 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>123219.2617402205</v>
+        <v>122638.2480519935</v>
       </c>
       <c r="C53">
         <v>125537</v>
       </c>
       <c r="D53">
-        <v>-2317.738259779464</v>
+        <v>-2898.751948006524</v>
       </c>
       <c r="E53">
-        <v>-0.01846259078820956</v>
+        <v>-0.02309081743236276</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3774,16 +3839,16 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>559347.8492986569</v>
+        <v>564739.9394633226</v>
       </c>
       <c r="C54">
         <v>574610.9999999999</v>
       </c>
       <c r="D54">
-        <v>-15263.15070134297</v>
+        <v>-9871.060536677251</v>
       </c>
       <c r="E54">
-        <v>-0.02656258007824941</v>
+        <v>-0.0171786835557921</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3791,16 +3856,16 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>470479.497483025</v>
+        <v>539596.9081945401</v>
       </c>
       <c r="C55">
         <v>545929</v>
       </c>
       <c r="D55">
-        <v>-75449.50251697499</v>
+        <v>-6332.091805459931</v>
       </c>
       <c r="E55">
-        <v>-0.1382038736117242</v>
+        <v>-0.0115987460007802</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3808,16 +3873,16 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>179380.5708886605</v>
+        <v>176987.3049938118</v>
       </c>
       <c r="C56">
         <v>187868</v>
       </c>
       <c r="D56">
-        <v>-8487.429111339472</v>
+        <v>-10880.69500618821</v>
       </c>
       <c r="E56">
-        <v>-0.04517761998498666</v>
+        <v>-0.05791670218551435</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3825,16 +3890,16 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>68842.50798020446</v>
+        <v>68194.14756476173</v>
       </c>
       <c r="C57">
         <v>70844</v>
       </c>
       <c r="D57">
-        <v>-2001.492019795536</v>
+        <v>-2649.852435238266</v>
       </c>
       <c r="E57">
-        <v>-0.02825210349211699</v>
+        <v>-0.03740404882895187</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3842,16 +3907,16 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>88641.4675587745</v>
+        <v>87591.11394685712</v>
       </c>
       <c r="C58">
         <v>94349.99999999999</v>
       </c>
       <c r="D58">
-        <v>-5708.532441225485</v>
+        <v>-6758.886053142865</v>
       </c>
       <c r="E58">
-        <v>-0.06050378846025952</v>
+        <v>-0.0716363121689758</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3859,16 +3924,16 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>43265.38298349837</v>
+        <v>42618.39845421</v>
       </c>
       <c r="C59">
         <v>45657.00000000001</v>
       </c>
       <c r="D59">
-        <v>-2391.617016501637</v>
+        <v>-3038.601545790007</v>
       </c>
       <c r="E59">
-        <v>-0.05238226376024787</v>
+        <v>-0.06655280780143255</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3876,16 +3941,16 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>201866.9817272868</v>
+        <v>199330.4413311997</v>
       </c>
       <c r="C60">
         <v>208430</v>
       </c>
       <c r="D60">
-        <v>-6563.018272713147</v>
+        <v>-9099.558668800251</v>
       </c>
       <c r="E60">
-        <v>-0.03148787733394016</v>
+        <v>-0.04365762447248598</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3893,16 +3958,16 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>38360.6410299688</v>
+        <v>37942.44553560502</v>
       </c>
       <c r="C61">
         <v>39955.00000000001</v>
       </c>
       <c r="D61">
-        <v>-1594.358970031208</v>
+        <v>-2012.554464394991</v>
       </c>
       <c r="E61">
-        <v>-0.03990386610014285</v>
+        <v>-0.05037052845438594</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3910,16 +3975,16 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>718288.2062821118</v>
+        <v>715680.1507758922</v>
       </c>
       <c r="C62">
         <v>719620.0000000003</v>
       </c>
       <c r="D62">
-        <v>-1331.793717888533</v>
+        <v>-3939.849224108155</v>
       </c>
       <c r="E62">
-        <v>-0.001850690250255041</v>
+        <v>-0.00547490234305349</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3927,16 +3992,16 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>308953.8447801796</v>
+        <v>308926.9483276087</v>
       </c>
       <c r="C63">
         <v>309033.9999999999</v>
       </c>
       <c r="D63">
-        <v>-80.15521982038626</v>
+        <v>-107.0516723912442</v>
       </c>
       <c r="E63">
-        <v>-0.0002593734664159486</v>
+        <v>-0.0003464074256918146</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3944,16 +4009,16 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>110237.1635722284</v>
+        <v>94396.03254297542</v>
       </c>
       <c r="C64">
         <v>110786.9999999999</v>
       </c>
       <c r="D64">
-        <v>-549.8364277715737</v>
+        <v>-16390.96745702453</v>
       </c>
       <c r="E64">
-        <v>-0.004963004935340554</v>
+        <v>-0.1479502780743637</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3961,16 +4026,16 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>179317.3499149361</v>
+        <v>179209.520096377</v>
       </c>
       <c r="C65">
         <v>179155</v>
       </c>
       <c r="D65">
-        <v>162.3499149360869</v>
+        <v>54.52009637703304</v>
       </c>
       <c r="E65">
-        <v>0.0009061980683547033</v>
+        <v>0.0003043180283945915</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3978,16 +4043,16 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>240214.433714498</v>
+        <v>229122.498556927</v>
       </c>
       <c r="C66">
         <v>222681</v>
       </c>
       <c r="D66">
-        <v>17533.43371449798</v>
+        <v>6441.498556926934</v>
       </c>
       <c r="E66">
-        <v>0.07873789732621093</v>
+        <v>0.02892702366581313</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3995,16 +4060,16 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>23684.49914046375</v>
+        <v>26171.88135910619</v>
       </c>
       <c r="C67">
         <v>34630.99999999999</v>
       </c>
       <c r="D67">
-        <v>-10946.50085953625</v>
+        <v>-8459.118640893801</v>
       </c>
       <c r="E67">
-        <v>-0.3160896554975671</v>
+        <v>-0.2442643481532096</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4012,16 +4077,16 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>124905.5963996517</v>
+        <v>124615.9192356367</v>
       </c>
       <c r="C68">
         <v>145590</v>
       </c>
       <c r="D68">
-        <v>-20684.40360034831</v>
+        <v>-20974.08076436332</v>
       </c>
       <c r="E68">
-        <v>-0.1420729692997343</v>
+        <v>-0.1440626469150582</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4048,13 +4113,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>79</v>
       </c>
@@ -4064,83 +4129,1347 @@
       <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>163127</v>
+      </c>
+      <c r="C2">
+        <v>-755.7935263282061</v>
+      </c>
+      <c r="D2">
+        <v>-0.4633160214607061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>71449</v>
+      </c>
+      <c r="C3">
+        <v>858.604697020765</v>
+      </c>
+      <c r="D3">
+        <v>1.201702888802874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>24391</v>
+      </c>
+      <c r="C4">
+        <v>-1149.955867906601</v>
+      </c>
+      <c r="D4">
+        <v>-4.714672903557056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>8856</v>
+      </c>
+      <c r="C5">
+        <v>-191.3431291136341</v>
+      </c>
+      <c r="D5">
+        <v>-2.160604438952508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>73558</v>
+      </c>
+      <c r="C6">
+        <v>-6131.138732281552</v>
+      </c>
+      <c r="D6">
+        <v>-8.335107985917986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>23916</v>
+      </c>
+      <c r="C7">
+        <v>-169.4846844355729</v>
+      </c>
+      <c r="D7">
+        <v>-0.708666517961084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>4443</v>
+      </c>
+      <c r="C8">
+        <v>-78.62851520251954</v>
+      </c>
+      <c r="D8">
+        <v>-1.76971675000044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>40377</v>
+      </c>
+      <c r="C9">
+        <v>574.3817663820469</v>
+      </c>
+      <c r="D9">
+        <v>1.422546911315964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>7388</v>
+      </c>
+      <c r="C10">
+        <v>-136.1239323391051</v>
+      </c>
+      <c r="D10">
+        <v>-1.842500437724758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>48541</v>
+      </c>
+      <c r="C11">
+        <v>260.4897501897482</v>
+      </c>
+      <c r="D11">
+        <v>0.5366386151701616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>22923</v>
+      </c>
+      <c r="C12">
+        <v>-2330.099658909238</v>
+      </c>
+      <c r="D12">
+        <v>-10.16489839422954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>4258</v>
+      </c>
+      <c r="C13">
+        <v>-135.7353467256303</v>
+      </c>
+      <c r="D13">
+        <v>-3.187772351470886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>13375</v>
+      </c>
+      <c r="C14">
+        <v>-2979.883517642053</v>
+      </c>
+      <c r="D14">
+        <v>-22.27950293564152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>24929</v>
+      </c>
+      <c r="C15">
+        <v>-6319.178394873565</v>
+      </c>
+      <c r="D15">
+        <v>-25.34870389856619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>13536</v>
+      </c>
+      <c r="C16">
+        <v>-2902.699047729639</v>
+      </c>
+      <c r="D16">
+        <v>-21.44428965521305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>9840</v>
+      </c>
+      <c r="C17">
+        <v>-465.1271001736583</v>
+      </c>
+      <c r="D17">
+        <v>-4.726901424529047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>22787</v>
+      </c>
+      <c r="C18">
+        <v>-943.7553599332346</v>
+      </c>
+      <c r="D18">
+        <v>-4.141639355480031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>8396</v>
+      </c>
+      <c r="C19">
+        <v>-596.8807446475556</v>
+      </c>
+      <c r="D19">
+        <v>-7.109108440299615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>36427</v>
+      </c>
+      <c r="C20">
+        <v>-4815.563252925094</v>
+      </c>
+      <c r="D20">
+        <v>-13.21976350763196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>8680</v>
+      </c>
+      <c r="C21">
+        <v>-1327.522147333557</v>
+      </c>
+      <c r="D21">
+        <v>-15.29403395545572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>25439</v>
+      </c>
+      <c r="C22">
+        <v>-916.6229363961569</v>
+      </c>
+      <c r="D22">
+        <v>-3.60321921614905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>15095</v>
+      </c>
+      <c r="C23">
+        <v>-413.3435533254114</v>
+      </c>
+      <c r="D23">
+        <v>-2.738281240976558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>8397</v>
+      </c>
+      <c r="C24">
+        <v>-467.3722945120192</v>
+      </c>
+      <c r="D24">
+        <v>-5.565943724092167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>23147</v>
+      </c>
+      <c r="C25">
+        <v>-1312.588957453047</v>
+      </c>
+      <c r="D25">
+        <v>-5.670665561208999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>26077</v>
+      </c>
+      <c r="C26">
+        <v>-1934.3198486151</v>
+      </c>
+      <c r="D26">
+        <v>-7.417723850960998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>27750</v>
+      </c>
+      <c r="C27">
+        <v>-612.1659304227693</v>
+      </c>
+      <c r="D27">
+        <v>-2.206003352874844</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>21747</v>
+      </c>
+      <c r="C28">
+        <v>-819.3308686691322</v>
+      </c>
+      <c r="D28">
+        <v>-3.767558139831389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>12555</v>
+      </c>
+      <c r="C29">
+        <v>-465.7095886032931</v>
+      </c>
+      <c r="D29">
+        <v>-3.709355544430849</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>34302</v>
+      </c>
+      <c r="C30">
+        <v>-1729.430243366547</v>
+      </c>
+      <c r="D30">
+        <v>-5.0417766992203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>13715</v>
+      </c>
+      <c r="C31">
+        <v>-1032.653572004742</v>
+      </c>
+      <c r="D31">
+        <v>-7.529373474332786</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>17037</v>
+      </c>
+      <c r="C32">
+        <v>-1107.690978092722</v>
+      </c>
+      <c r="D32">
+        <v>-6.501678570715046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>37643</v>
+      </c>
+      <c r="C33">
+        <v>-741.369647815461</v>
+      </c>
+      <c r="D33">
+        <v>-1.969475461082966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>22410</v>
+      </c>
+      <c r="C34">
+        <v>-4268.386095650087</v>
+      </c>
+      <c r="D34">
+        <v>-19.04679203770677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>18416</v>
+      </c>
+      <c r="C35">
+        <v>-2298.022781386071</v>
+      </c>
+      <c r="D35">
+        <v>-12.47840346104513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>12065</v>
+      </c>
+      <c r="C36">
+        <v>-755.5413822737096</v>
+      </c>
+      <c r="D36">
+        <v>-6.262257623487025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>31376</v>
+      </c>
+      <c r="C37">
+        <v>-3256.500750852328</v>
+      </c>
+      <c r="D37">
+        <v>-10.37895445835138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>22185</v>
+      </c>
+      <c r="C38">
+        <v>-1057.100827489322</v>
+      </c>
+      <c r="D38">
+        <v>-4.764934989809881</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>85465</v>
+      </c>
+      <c r="C39">
+        <v>-11823.84924684942</v>
+      </c>
+      <c r="D39">
+        <v>-13.83472678505753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>37718</v>
+      </c>
+      <c r="C40">
+        <v>-3224.450604743613</v>
+      </c>
+      <c r="D40">
+        <v>-8.548837702804002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>296018</v>
+      </c>
+      <c r="C41">
+        <v>-969.9709530164747</v>
+      </c>
+      <c r="D41">
+        <v>-0.3276729634740032</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>86906</v>
+      </c>
+      <c r="C42">
+        <v>-8551.446358571593</v>
+      </c>
+      <c r="D42">
+        <v>-9.839880282801641</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>598802</v>
+      </c>
+      <c r="C43">
+        <v>-47986.51717496628</v>
+      </c>
+      <c r="D43">
+        <v>-8.013753657296784</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>145771</v>
+      </c>
+      <c r="C44">
+        <v>-23048.56772682405</v>
+      </c>
+      <c r="D44">
+        <v>-15.81149043830669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>8758</v>
+      </c>
+      <c r="C45">
+        <v>-497.2919279547197</v>
+      </c>
+      <c r="D45">
+        <v>-5.678144872741719</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>6882</v>
+      </c>
+      <c r="C46">
+        <v>-928.8939847342297</v>
+      </c>
+      <c r="D46">
+        <v>-13.4974423820725</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>65089</v>
+      </c>
+      <c r="C47">
+        <v>-3713.953569674647</v>
+      </c>
+      <c r="D47">
+        <v>-5.705961943914712</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>13124</v>
+      </c>
+      <c r="C48">
+        <v>-1803.25881238219</v>
+      </c>
+      <c r="D48">
+        <v>-13.74016163046472</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>109506</v>
+      </c>
+      <c r="C49">
+        <v>-25163.00156427535</v>
+      </c>
+      <c r="D49">
+        <v>-22.97865100019666</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>8757</v>
+      </c>
+      <c r="C50">
+        <v>-1145.748232165524</v>
+      </c>
+      <c r="D50">
+        <v>-13.08379847168578</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>19242</v>
+      </c>
+      <c r="C51">
+        <v>-1476.295319011184</v>
+      </c>
+      <c r="D51">
+        <v>-7.672255061902007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>65303</v>
+      </c>
+      <c r="C52">
+        <v>-4427.783835485964</v>
+      </c>
+      <c r="D52">
+        <v>-6.780368184441701</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>82702</v>
+      </c>
+      <c r="C53">
+        <v>-1909.656783291265</v>
+      </c>
+      <c r="D53">
+        <v>-2.309081743236276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>365276</v>
+      </c>
+      <c r="C54">
+        <v>-6274.960814525512</v>
+      </c>
+      <c r="D54">
+        <v>-1.717868355579209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>498884</v>
+      </c>
+      <c r="C55">
+        <v>-5786.428799853227</v>
+      </c>
+      <c r="D55">
+        <v>-1.15987460007802</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>125524</v>
+      </c>
+      <c r="C56">
+        <v>-7269.936125134503</v>
+      </c>
+      <c r="D56">
+        <v>-5.791670218551435</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>44866</v>
+      </c>
+      <c r="C57">
+        <v>-1678.170054759755</v>
+      </c>
+      <c r="D57">
+        <v>-3.740404882895187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>33439</v>
+      </c>
+      <c r="C58">
+        <v>-2395.446642618381</v>
+      </c>
+      <c r="D58">
+        <v>-7.163631216897579</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>29535</v>
+      </c>
+      <c r="C59">
+        <v>-1965.637178415311</v>
+      </c>
+      <c r="D59">
+        <v>-6.655280780143256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>146846</v>
+      </c>
+      <c r="C60">
+        <v>-6410.947523286675</v>
+      </c>
+      <c r="D60">
+        <v>-4.365762447248597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>32943</v>
+      </c>
+      <c r="C61">
+        <v>-1659.356318872836</v>
+      </c>
+      <c r="D61">
+        <v>-5.037052845438596</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>509142</v>
+      </c>
+      <c r="C62">
+        <v>-2787.502728746942</v>
+      </c>
+      <c r="D62">
+        <v>-0.5474902343053494</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>257301</v>
+      </c>
+      <c r="C63">
+        <v>-89.13097703792957</v>
+      </c>
+      <c r="D63">
+        <v>-0.03464074256918145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>76654</v>
+      </c>
+      <c r="C64">
+        <v>-11340.98061551227</v>
+      </c>
+      <c r="D64">
+        <v>-14.79502780743636</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>119144</v>
+      </c>
+      <c r="C65">
+        <v>36.25766717504521</v>
+      </c>
+      <c r="D65">
+        <v>0.03043180283945915</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>133285</v>
+      </c>
+      <c r="C66">
+        <v>3855.538349297903</v>
+      </c>
+      <c r="D66">
+        <v>2.892702366581313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>19139</v>
+      </c>
+      <c r="C67">
+        <v>-4674.975359304279</v>
+      </c>
+      <c r="D67">
+        <v>-24.42643481532096</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>71031</v>
+      </c>
+      <c r="C68">
+        <v>-10232.9138730235</v>
+      </c>
+      <c r="D68">
+        <v>-14.40626469150582</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>61996</v>
+      </c>
+      <c r="C69">
+        <v>-9299.400000000001</v>
+      </c>
+      <c r="D69">
+        <v>-15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2">
+        <v>163127</v>
+      </c>
+      <c r="C2">
+        <v>-755.7935263282061</v>
+      </c>
+      <c r="D2">
+        <v>-0.4633160214607061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>71449</v>
+      </c>
+      <c r="C3">
+        <v>858.604697020765</v>
+      </c>
+      <c r="D3">
+        <v>1.201702888802874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>24391</v>
+      </c>
+      <c r="C4">
+        <v>-1149.955867906601</v>
+      </c>
+      <c r="D4">
+        <v>-4.714672903557056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>110773</v>
+      </c>
+      <c r="C5">
+        <v>-6570.595061033277</v>
+      </c>
+      <c r="D5">
+        <v>-5.931585369208451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>630813</v>
+      </c>
+      <c r="C6">
+        <v>-45305.84724358846</v>
+      </c>
+      <c r="D6">
+        <v>-7.182135948940251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>123183</v>
+      </c>
+      <c r="C7">
+        <v>-15048.29985159303</v>
+      </c>
+      <c r="D7">
+        <v>-12.21621477930642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>296018</v>
+      </c>
+      <c r="C8">
+        <v>-969.9709530164747</v>
+      </c>
+      <c r="D8">
+        <v>-0.3276729634740032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9">
+        <v>685708</v>
+      </c>
+      <c r="C9">
+        <v>-56537.96353353788</v>
+      </c>
+      <c r="D9">
+        <v>-8.245195262930851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>226500</v>
+      </c>
+      <c r="C10">
+        <v>-28188.70720918765</v>
+      </c>
+      <c r="D10">
+        <v>-12.44534534621971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <v>122630</v>
+      </c>
+      <c r="C11">
+        <v>-26966.26037665754</v>
+      </c>
+      <c r="D11">
+        <v>-21.98993751664156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>176004</v>
+      </c>
+      <c r="C12">
+        <v>-8959.484169953937</v>
+      </c>
+      <c r="D12">
+        <v>-5.090500312466727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13">
+        <v>365276</v>
+      </c>
+      <c r="C13">
+        <v>-6274.960814525512</v>
+      </c>
+      <c r="D13">
+        <v>-1.717868355579209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14">
+        <v>498884</v>
+      </c>
+      <c r="C14">
+        <v>-5786.428799853227</v>
+      </c>
+      <c r="D14">
+        <v>-1.15987460007802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15">
+        <v>413153</v>
+      </c>
+      <c r="C15">
+        <v>-21379.49384308746</v>
+      </c>
+      <c r="D15">
+        <v>-5.17471586629831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16">
+        <v>885587</v>
+      </c>
+      <c r="C16">
+        <v>-2840.376038609826</v>
+      </c>
+      <c r="D16">
+        <v>-0.3207337098003726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>209939</v>
+      </c>
+      <c r="C17">
+        <v>-7485.442266214368</v>
+      </c>
+      <c r="D17">
+        <v>-3.565532019402954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <v>90170</v>
+      </c>
+      <c r="C18">
+        <v>-14907.88923232777</v>
+      </c>
+      <c r="D18">
+        <v>-16.53309219510677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19">
+        <v>61996</v>
+      </c>
+      <c r="C19">
+        <v>-9299.400000000001</v>
+      </c>
+      <c r="D19">
+        <v>-15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B2">
+        <v>5155601</v>
+      </c>
+      <c r="C2">
         <v>10226869</v>
       </c>
-      <c r="C2">
-        <v>5155601</v>
-      </c>
       <c r="D2">
+        <v>385173.0249833075</v>
+      </c>
+      <c r="E2">
         <v>1925415</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>499417</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2672020</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>101955076</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B3">
-        <v>-614991.8389192369</v>
+        <v>-257568.2640904005</v>
       </c>
       <c r="C3">
-        <v>-290017.7724222401</v>
+        <v>-591330.437943748</v>
       </c>
       <c r="D3">
-        <v>-136666.0476314314</v>
+        <v>-28093.5791262782</v>
       </c>
       <c r="E3">
-        <v>-30662.22859820578</v>
+        <v>-86331.04293534209</v>
       </c>
       <c r="F3">
-        <v>-118939.0557196374</v>
+        <v>-29149.3774599528</v>
       </c>
       <c r="G3">
-        <v>-7064424.353404826</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-137727.6604576867</v>
+      </c>
+      <c r="H3">
+        <v>-7170528.509171761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B4">
-        <v>-6.01349092199418</v>
+        <v>-4.995892119859556</v>
       </c>
       <c r="C4">
-        <v>-5.625295138670352</v>
+        <v>-5.782125868080914</v>
       </c>
       <c r="D4">
-        <v>-7.098004722692582</v>
+        <v>-7.293755612168249</v>
       </c>
       <c r="E4">
-        <v>-6.139604498486391</v>
+        <v>-4.4837628737359</v>
       </c>
       <c r="F4">
-        <v>-4.451278647601343</v>
+        <v>-5.836681062108979</v>
       </c>
       <c r="G4">
-        <v>-6.928957959292606</v>
+        <v>-5.154439729406469</v>
+      </c>
+      <c r="H4">
+        <v>-7.033027476897531</v>
       </c>
     </row>
   </sheetData>
